--- a/BA_04/src/ex_00_BRB_entity.xlsx
+++ b/BA_04/src/ex_00_BRB_entity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\Desktop\Business-and-system-analyses\BA_04\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E291A3-C63C-4873-81F5-2F6BAB72B47E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B4D56E-AD38-4422-BA74-F209454D02BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="18948" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -445,7 +445,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
